--- a/activeeon docs/Infrastructure and services.xlsx
+++ b/activeeon docs/Infrastructure and services.xlsx
@@ -1,28 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\proactive\docs\activeeon docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3852"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="AE Infrastructure" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Services" sheetId="2" r:id="rId4"/>
+    <sheet name="AE Infrastructure" sheetId="1" r:id="rId1"/>
+    <sheet name="Services" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B4">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Is it normal that master, whose goal is to deploy Jenkins + Nexus + Sonar, has SSD?
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Is it normal that master, whose goal is to deploy Jenkins + Nexus + Sonar, has SSD?
 	-Unknown
 Soon we are supposed to use trydev machine for that right ?
 	-Brian Amedro</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -449,100 +464,110 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mmm&quot;-&quot;d"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mmm-d"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mmm\-d"/>
   </numFmts>
   <fonts count="19">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
-      <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF3388DD"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF444444"/>
       <name val="'Helvetica Neue'"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF3B393E"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -551,7 +576,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -584,176 +609,507 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Rectangle 2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92252C95-C213-4026-94B6-DC9BDD993728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.29"/>
-    <col customWidth="1" min="2" max="2" width="33.29"/>
-    <col customWidth="1" min="3" max="3" width="23.14"/>
-    <col customWidth="1" min="4" max="5" width="14.0"/>
-    <col customWidth="1" min="6" max="6" width="13.71"/>
-    <col customWidth="1" min="7" max="7" width="26.43"/>
-    <col customWidth="1" min="8" max="8" width="16.43"/>
-    <col customWidth="1" min="9" max="11" width="6.29"/>
-    <col customWidth="1" min="12" max="12" width="8.43"/>
-    <col customWidth="1" min="13" max="13" width="37.29"/>
-    <col customWidth="1" min="14" max="14" width="24.57"/>
-    <col customWidth="1" min="15" max="15" width="29.57"/>
-    <col customWidth="1" min="16" max="16" width="20.14"/>
-    <col customWidth="1" min="17" max="17" width="13.43"/>
-    <col customWidth="1" min="18" max="18" width="46.57"/>
-    <col customWidth="1" min="19" max="19" width="11.71"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="11" width="6.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
+    <col min="13" max="13" width="37.33203125" customWidth="1"/>
+    <col min="14" max="14" width="24.5546875" customWidth="1"/>
+    <col min="15" max="15" width="29.5546875" customWidth="1"/>
+    <col min="16" max="16" width="20.109375" customWidth="1"/>
+    <col min="17" max="17" width="13.44140625" customWidth="1"/>
+    <col min="18" max="18" width="46.5546875" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" ht="13.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -776,7 +1132,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" ht="1.5" customHeight="1">
+    <row r="2" spans="1:19" ht="1.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -807,9 +1163,10 @@
       <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="42" t="s">
         <v>22</v>
       </c>
+      <c r="L2" s="43"/>
       <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
@@ -832,7 +1189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19" ht="13.2">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -854,13 +1211,13 @@
         <v>34</v>
       </c>
       <c r="I3" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J3" s="6">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="K3" s="6">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>35</v>
@@ -874,12 +1231,12 @@
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="8">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:19" ht="13.5" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -899,13 +1256,13 @@
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K4" s="6">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>42</v>
@@ -919,10 +1276,10 @@
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="11">
-        <v>42320.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>42320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="13.2">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -947,10 +1304,10 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K5" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>35</v>
@@ -969,7 +1326,7 @@
       </c>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:19" ht="13.2">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -991,13 +1348,13 @@
         <v>57</v>
       </c>
       <c r="I6" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J6" s="6">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="K6" s="6">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>42</v>
@@ -1013,10 +1370,10 @@
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="11">
-        <v>42320.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>42320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="13.2">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1040,13 +1397,13 @@
         <v>63</v>
       </c>
       <c r="I7" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J7" s="6">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="K7" s="6">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>42</v>
@@ -1062,10 +1419,10 @@
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="11">
-        <v>42423.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>42423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="13.2">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1087,13 +1444,13 @@
         <v>57</v>
       </c>
       <c r="I8" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J8" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K8" s="6">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>42</v>
@@ -1112,7 +1469,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:19" ht="13.2">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1136,13 +1493,13 @@
         <v>73</v>
       </c>
       <c r="I9" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J9" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K9" s="6">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>42</v>
@@ -1159,7 +1516,7 @@
       </c>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:19" ht="13.2">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1181,13 +1538,13 @@
         <v>79</v>
       </c>
       <c r="I10" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J10" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K10" s="6">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>42</v>
@@ -1201,10 +1558,10 @@
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="16">
-        <v>42646.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="13.2">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1226,13 +1583,13 @@
         <v>79</v>
       </c>
       <c r="I11" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J11" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K11" s="6">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>42</v>
@@ -1246,10 +1603,10 @@
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="16">
-        <v>42646.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="13.2">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1271,13 +1628,13 @@
         <v>79</v>
       </c>
       <c r="I12" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J12" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K12" s="6">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>42</v>
@@ -1291,10 +1648,10 @@
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="16">
-        <v>42646.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="13.2">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1316,13 +1673,13 @@
         <v>63</v>
       </c>
       <c r="I13" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J13" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K13" s="6">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>42</v>
@@ -1338,10 +1695,10 @@
         <v>87</v>
       </c>
       <c r="Q13" s="16">
-        <v>42646.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="13.2">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -1379,10 +1736,10 @@
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="11">
-        <v>41786.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>41786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="13.2">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1404,13 +1761,13 @@
         <v>97</v>
       </c>
       <c r="I15" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J15" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K15" s="6">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>42</v>
@@ -1428,10 +1785,10 @@
         <v>98</v>
       </c>
       <c r="Q15" s="11">
-        <v>41948.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>41948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="13.2">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -1455,13 +1812,13 @@
         <v>102</v>
       </c>
       <c r="I16" s="20">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J16" s="20">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="K16" s="20">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="L16" s="20" t="s">
         <v>42</v>
@@ -1477,12 +1834,12 @@
       </c>
       <c r="P16" s="23"/>
       <c r="Q16" s="24">
-        <v>42411.0</v>
+        <v>42411</v>
       </c>
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:19" ht="13.2">
       <c r="A17" s="20" t="s">
         <v>29</v>
       </c>
@@ -1502,13 +1859,13 @@
         <v>97</v>
       </c>
       <c r="I17" s="20">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J17" s="20">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="K17" s="20">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="L17" s="20" t="s">
         <v>42</v>
@@ -1524,12 +1881,12 @@
       </c>
       <c r="P17" s="23"/>
       <c r="Q17" s="24">
-        <v>42467.0</v>
+        <v>42467</v>
       </c>
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:19" ht="13.2">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1551,13 +1908,13 @@
         <v>113</v>
       </c>
       <c r="I18" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="6">
-        <v>4000.0</v>
+        <v>4000</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>35</v>
@@ -1572,7 +1929,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:19" ht="13.2">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1605,10 +1962,10 @@
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="11">
-        <v>42751.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>42751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="13.2">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -1632,13 +1989,13 @@
         <v>123</v>
       </c>
       <c r="I20" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K20" s="6">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>124</v>
@@ -1652,13 +2009,13 @@
         <v>126</v>
       </c>
       <c r="Q20" s="11">
-        <v>42898.0</v>
+        <v>42898</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:19" ht="13.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>128</v>
@@ -1681,7 +2038,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:19" ht="13.2">
       <c r="A22" s="3"/>
       <c r="B22" s="32" t="s">
         <v>129</v>
@@ -1706,7 +2063,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:19" ht="13.8">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -1728,13 +2085,13 @@
         <v>79</v>
       </c>
       <c r="I23" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J23" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K23" s="3">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>42</v>
@@ -1750,10 +2107,10 @@
         <v>87</v>
       </c>
       <c r="Q23" s="16">
-        <v>42646.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="13.8">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1775,13 +2132,13 @@
         <v>79</v>
       </c>
       <c r="I24" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J24" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K24" s="3">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>42</v>
@@ -1797,10 +2154,10 @@
         <v>87</v>
       </c>
       <c r="Q24" s="16">
-        <v>42646.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="13.8">
       <c r="A25" s="3"/>
       <c r="B25" s="37"/>
       <c r="C25" s="7"/>
@@ -1819,7 +2176,7 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:19" ht="13.2">
       <c r="B26" s="38"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
@@ -1827,14 +2184,14 @@
       <c r="F26" s="40"/>
       <c r="Q26" s="41"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:19" ht="13.2">
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
       <c r="F27" s="40"/>
       <c r="Q27" s="41"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:19" ht="13.2">
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
@@ -1846,51 +2203,59 @@
     <mergeCell ref="K2:L2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="B5"/>
-    <hyperlink r:id="rId3" ref="B6"/>
-    <hyperlink r:id="rId4" ref="B7"/>
-    <hyperlink r:id="rId5" ref="C7"/>
-    <hyperlink r:id="rId6" ref="B8"/>
-    <hyperlink r:id="rId7" ref="B9"/>
-    <hyperlink r:id="rId8" ref="B10"/>
-    <hyperlink r:id="rId9" ref="B11"/>
-    <hyperlink r:id="rId10" ref="B12"/>
-    <hyperlink r:id="rId11" ref="B13"/>
-    <hyperlink r:id="rId12" ref="B14"/>
-    <hyperlink r:id="rId13" ref="B15"/>
-    <hyperlink r:id="rId14" ref="B16"/>
-    <hyperlink r:id="rId15" ref="B17"/>
-    <hyperlink r:id="rId16" ref="B20"/>
-    <hyperlink r:id="rId17" ref="C20"/>
-    <hyperlink r:id="rId18" ref="B23"/>
-    <hyperlink r:id="rId19" ref="B24"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B17" r:id="rId14"/>
+    <hyperlink ref="B20" r:id="rId15"/>
+    <hyperlink ref="C20" r:id="rId16"/>
+    <hyperlink ref="B23" r:id="rId17"/>
+    <hyperlink ref="B24" r:id="rId18"/>
   </hyperlinks>
-  <drawing r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="22.14"/>
-    <col customWidth="1" min="6" max="6" width="14.14"/>
-    <col customWidth="1" min="7" max="7" width="40.43"/>
+    <col min="1" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1913,22 +2278,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1937,6 +2302,6 @@
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>